--- a/processed_data/2021_cal_flag.xlsx
+++ b/processed_data/2021_cal_flag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\yekim\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9EBF20-D7FE-4EBB-B256-81155DF73E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC06257-0D38-4CD8-B377-007CC583507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26625" yWindow="2025" windowWidth="26580" windowHeight="11385" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
+    <workbookView xWindow="-27495" yWindow="1860" windowWidth="26580" windowHeight="11385" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>flag</t>
+    <t>date_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,14 +410,17 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/processed_data/2021_cal_flag.xlsx
+++ b/processed_data/2021_cal_flag.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\yekim\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC06257-0D38-4CD8-B377-007CC583507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1567EEAE-FDF0-40B7-988B-D3B760E2B01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27495" yWindow="1860" windowWidth="26580" windowHeight="11385" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
+    <workbookView xWindow="9420" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$G$366</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,13 +39,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>load_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eve_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss_flag_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss_flag_pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,23 +426,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333108FB-DE9C-416A-9215-98EEFCFBADDD}">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>210101</v>
       </c>
@@ -433,8 +468,20 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>210102</v>
       </c>
@@ -444,8 +491,20 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>210103</v>
       </c>
@@ -455,8 +514,20 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>210104</v>
       </c>
@@ -466,8 +537,20 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>210105</v>
       </c>
@@ -477,8 +560,20 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>210106</v>
       </c>
@@ -488,8 +583,20 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>210107</v>
       </c>
@@ -499,8 +606,20 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>210108</v>
       </c>
@@ -510,8 +629,20 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>210109</v>
       </c>
@@ -521,8 +652,20 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>210110</v>
       </c>
@@ -532,8 +675,20 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210111</v>
       </c>
@@ -543,8 +698,20 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>210112</v>
       </c>
@@ -554,8 +721,20 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>210113</v>
       </c>
@@ -565,8 +744,20 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>210114</v>
       </c>
@@ -576,8 +767,20 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>210115</v>
       </c>
@@ -587,8 +790,20 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>210116</v>
       </c>
@@ -598,8 +813,20 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>210117</v>
       </c>
@@ -609,8 +836,20 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>210118</v>
       </c>
@@ -620,8 +859,20 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>210119</v>
       </c>
@@ -631,8 +882,20 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>210120</v>
       </c>
@@ -642,8 +905,20 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>210121</v>
       </c>
@@ -653,8 +928,20 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>210122</v>
       </c>
@@ -664,8 +951,20 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>210123</v>
       </c>
@@ -675,8 +974,20 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>210124</v>
       </c>
@@ -686,8 +997,20 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>210125</v>
       </c>
@@ -697,8 +1020,20 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>210126</v>
       </c>
@@ -708,8 +1043,20 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>210127</v>
       </c>
@@ -719,8 +1066,20 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>210128</v>
       </c>
@@ -730,8 +1089,20 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>210129</v>
       </c>
@@ -741,8 +1112,20 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>210130</v>
       </c>
@@ -752,8 +1135,20 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>210131</v>
       </c>
@@ -763,8 +1158,20 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>210201</v>
       </c>
@@ -774,8 +1181,20 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>210202</v>
       </c>
@@ -785,8 +1204,20 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>210203</v>
       </c>
@@ -796,8 +1227,20 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>210204</v>
       </c>
@@ -807,8 +1250,20 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>210205</v>
       </c>
@@ -818,8 +1273,20 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>210206</v>
       </c>
@@ -829,8 +1296,20 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>210207</v>
       </c>
@@ -840,8 +1319,20 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>210208</v>
       </c>
@@ -851,8 +1342,20 @@
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>210209</v>
       </c>
@@ -862,8 +1365,20 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>210210</v>
       </c>
@@ -873,8 +1388,20 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>210211</v>
       </c>
@@ -884,8 +1411,20 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>210212</v>
       </c>
@@ -895,8 +1434,20 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>210213</v>
       </c>
@@ -906,8 +1457,20 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>210214</v>
       </c>
@@ -917,8 +1480,20 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>210215</v>
       </c>
@@ -928,8 +1503,20 @@
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>210216</v>
       </c>
@@ -939,8 +1526,20 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>210217</v>
       </c>
@@ -950,8 +1549,20 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>210218</v>
       </c>
@@ -961,8 +1572,20 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>210219</v>
       </c>
@@ -972,8 +1595,20 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>210220</v>
       </c>
@@ -983,8 +1618,20 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>210221</v>
       </c>
@@ -994,8 +1641,20 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>210222</v>
       </c>
@@ -1005,8 +1664,20 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>210223</v>
       </c>
@@ -1016,8 +1687,20 @@
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>210224</v>
       </c>
@@ -1027,8 +1710,20 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>210225</v>
       </c>
@@ -1038,8 +1733,20 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>210226</v>
       </c>
@@ -1049,8 +1756,20 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>210227</v>
       </c>
@@ -1060,8 +1779,20 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>210228</v>
       </c>
@@ -1071,8 +1802,20 @@
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>210301</v>
       </c>
@@ -1082,8 +1825,20 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>210302</v>
       </c>
@@ -1093,8 +1848,20 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>210303</v>
       </c>
@@ -1104,8 +1871,20 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>210304</v>
       </c>
@@ -1115,8 +1894,20 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>210305</v>
       </c>
@@ -1126,8 +1917,20 @@
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>210306</v>
       </c>
@@ -1137,8 +1940,20 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>210307</v>
       </c>
@@ -1148,8 +1963,20 @@
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>210308</v>
       </c>
@@ -1159,8 +1986,20 @@
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>210309</v>
       </c>
@@ -1170,8 +2009,20 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>210310</v>
       </c>
@@ -1181,8 +2032,20 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>210311</v>
       </c>
@@ -1192,8 +2055,20 @@
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>210312</v>
       </c>
@@ -1203,8 +2078,20 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>210313</v>
       </c>
@@ -1214,8 +2101,20 @@
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>210314</v>
       </c>
@@ -1225,8 +2124,20 @@
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>210315</v>
       </c>
@@ -1236,8 +2147,20 @@
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>210316</v>
       </c>
@@ -1247,8 +2170,20 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>210317</v>
       </c>
@@ -1258,8 +2193,20 @@
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>210318</v>
       </c>
@@ -1269,8 +2216,20 @@
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>210319</v>
       </c>
@@ -1280,8 +2239,20 @@
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>210320</v>
       </c>
@@ -1291,8 +2262,20 @@
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>210321</v>
       </c>
@@ -1302,8 +2285,20 @@
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>210322</v>
       </c>
@@ -1313,8 +2308,20 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>210323</v>
       </c>
@@ -1324,8 +2331,20 @@
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>210324</v>
       </c>
@@ -1335,8 +2354,20 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>210325</v>
       </c>
@@ -1346,8 +2377,20 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>210326</v>
       </c>
@@ -1357,8 +2400,20 @@
       <c r="C86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>210327</v>
       </c>
@@ -1368,8 +2423,20 @@
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>210328</v>
       </c>
@@ -1379,8 +2446,20 @@
       <c r="C88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>210329</v>
       </c>
@@ -1390,8 +2469,20 @@
       <c r="C89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>210330</v>
       </c>
@@ -1401,8 +2492,20 @@
       <c r="C90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>210331</v>
       </c>
@@ -1412,8 +2515,20 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>210401</v>
       </c>
@@ -1423,8 +2538,20 @@
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>210402</v>
       </c>
@@ -1434,8 +2561,20 @@
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>210403</v>
       </c>
@@ -1445,8 +2584,20 @@
       <c r="C94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>210404</v>
       </c>
@@ -1456,8 +2607,20 @@
       <c r="C95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>210405</v>
       </c>
@@ -1467,8 +2630,20 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>210406</v>
       </c>
@@ -1478,8 +2653,20 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>210407</v>
       </c>
@@ -1489,8 +2676,20 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>210408</v>
       </c>
@@ -1500,8 +2699,20 @@
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>210409</v>
       </c>
@@ -1511,8 +2722,20 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>210410</v>
       </c>
@@ -1522,8 +2745,20 @@
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>210411</v>
       </c>
@@ -1533,8 +2768,20 @@
       <c r="C102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>210412</v>
       </c>
@@ -1544,8 +2791,20 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>210413</v>
       </c>
@@ -1555,8 +2814,20 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>210414</v>
       </c>
@@ -1566,8 +2837,20 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>210415</v>
       </c>
@@ -1577,8 +2860,20 @@
       <c r="C106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>210416</v>
       </c>
@@ -1588,8 +2883,20 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>210417</v>
       </c>
@@ -1599,8 +2906,20 @@
       <c r="C108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>210418</v>
       </c>
@@ -1610,8 +2929,20 @@
       <c r="C109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>210419</v>
       </c>
@@ -1621,8 +2952,20 @@
       <c r="C110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>210420</v>
       </c>
@@ -1632,8 +2975,20 @@
       <c r="C111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>210421</v>
       </c>
@@ -1643,8 +2998,20 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>210422</v>
       </c>
@@ -1654,8 +3021,20 @@
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>210423</v>
       </c>
@@ -1665,8 +3044,20 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>210424</v>
       </c>
@@ -1676,8 +3067,20 @@
       <c r="C115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>210425</v>
       </c>
@@ -1687,8 +3090,20 @@
       <c r="C116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>210426</v>
       </c>
@@ -1698,8 +3113,20 @@
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>210427</v>
       </c>
@@ -1709,8 +3136,20 @@
       <c r="C118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>210428</v>
       </c>
@@ -1720,8 +3159,20 @@
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>210429</v>
       </c>
@@ -1731,8 +3182,20 @@
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>210430</v>
       </c>
@@ -1742,8 +3205,20 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>210501</v>
       </c>
@@ -1753,8 +3228,20 @@
       <c r="C122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>210502</v>
       </c>
@@ -1764,8 +3251,20 @@
       <c r="C123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>210503</v>
       </c>
@@ -1775,8 +3274,20 @@
       <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>210504</v>
       </c>
@@ -1786,8 +3297,20 @@
       <c r="C125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>210505</v>
       </c>
@@ -1797,8 +3320,20 @@
       <c r="C126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>210506</v>
       </c>
@@ -1808,8 +3343,20 @@
       <c r="C127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>210507</v>
       </c>
@@ -1819,8 +3366,20 @@
       <c r="C128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>210508</v>
       </c>
@@ -1830,8 +3389,20 @@
       <c r="C129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>210509</v>
       </c>
@@ -1841,8 +3412,20 @@
       <c r="C130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>210510</v>
       </c>
@@ -1852,8 +3435,20 @@
       <c r="C131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>210511</v>
       </c>
@@ -1863,8 +3458,20 @@
       <c r="C132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>210512</v>
       </c>
@@ -1874,8 +3481,20 @@
       <c r="C133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>210513</v>
       </c>
@@ -1885,8 +3504,20 @@
       <c r="C134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>210514</v>
       </c>
@@ -1896,8 +3527,20 @@
       <c r="C135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>210515</v>
       </c>
@@ -1907,8 +3550,20 @@
       <c r="C136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>210516</v>
       </c>
@@ -1918,8 +3573,20 @@
       <c r="C137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>210517</v>
       </c>
@@ -1929,8 +3596,20 @@
       <c r="C138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>210518</v>
       </c>
@@ -1940,8 +3619,20 @@
       <c r="C139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>210519</v>
       </c>
@@ -1951,8 +3642,20 @@
       <c r="C140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>210520</v>
       </c>
@@ -1962,8 +3665,20 @@
       <c r="C141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>210521</v>
       </c>
@@ -1973,8 +3688,20 @@
       <c r="C142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>210522</v>
       </c>
@@ -1984,8 +3711,20 @@
       <c r="C143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>210523</v>
       </c>
@@ -1995,8 +3734,20 @@
       <c r="C144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>210524</v>
       </c>
@@ -2006,8 +3757,20 @@
       <c r="C145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>210525</v>
       </c>
@@ -2017,8 +3780,20 @@
       <c r="C146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>210526</v>
       </c>
@@ -2028,8 +3803,20 @@
       <c r="C147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>210527</v>
       </c>
@@ -2039,8 +3826,20 @@
       <c r="C148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>210528</v>
       </c>
@@ -2050,8 +3849,20 @@
       <c r="C149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>210529</v>
       </c>
@@ -2061,8 +3872,20 @@
       <c r="C150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>210530</v>
       </c>
@@ -2072,8 +3895,20 @@
       <c r="C151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>210531</v>
       </c>
@@ -2083,8 +3918,20 @@
       <c r="C152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>210601</v>
       </c>
@@ -2094,8 +3941,20 @@
       <c r="C153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>210602</v>
       </c>
@@ -2105,8 +3964,20 @@
       <c r="C154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>210603</v>
       </c>
@@ -2116,8 +3987,20 @@
       <c r="C155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>210604</v>
       </c>
@@ -2127,8 +4010,20 @@
       <c r="C156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>210605</v>
       </c>
@@ -2138,8 +4033,20 @@
       <c r="C157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>210606</v>
       </c>
@@ -2149,8 +4056,20 @@
       <c r="C158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>210607</v>
       </c>
@@ -2160,8 +4079,20 @@
       <c r="C159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>210608</v>
       </c>
@@ -2171,8 +4102,20 @@
       <c r="C160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>210609</v>
       </c>
@@ -2182,8 +4125,20 @@
       <c r="C161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>210610</v>
       </c>
@@ -2193,8 +4148,20 @@
       <c r="C162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>210611</v>
       </c>
@@ -2204,8 +4171,20 @@
       <c r="C163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>210612</v>
       </c>
@@ -2215,8 +4194,20 @@
       <c r="C164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>210613</v>
       </c>
@@ -2226,8 +4217,20 @@
       <c r="C165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>210614</v>
       </c>
@@ -2237,8 +4240,20 @@
       <c r="C166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>210615</v>
       </c>
@@ -2248,8 +4263,20 @@
       <c r="C167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>210616</v>
       </c>
@@ -2259,8 +4286,20 @@
       <c r="C168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>210617</v>
       </c>
@@ -2270,8 +4309,20 @@
       <c r="C169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>210618</v>
       </c>
@@ -2281,8 +4332,20 @@
       <c r="C170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>210619</v>
       </c>
@@ -2292,8 +4355,20 @@
       <c r="C171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>210620</v>
       </c>
@@ -2303,8 +4378,20 @@
       <c r="C172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>210621</v>
       </c>
@@ -2314,8 +4401,20 @@
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>210622</v>
       </c>
@@ -2325,8 +4424,20 @@
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>210623</v>
       </c>
@@ -2336,8 +4447,20 @@
       <c r="C175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>210624</v>
       </c>
@@ -2347,8 +4470,20 @@
       <c r="C176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>210625</v>
       </c>
@@ -2358,8 +4493,20 @@
       <c r="C177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>210626</v>
       </c>
@@ -2369,8 +4516,20 @@
       <c r="C178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>210627</v>
       </c>
@@ -2380,8 +4539,20 @@
       <c r="C179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>210628</v>
       </c>
@@ -2391,8 +4562,20 @@
       <c r="C180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>210629</v>
       </c>
@@ -2402,8 +4585,20 @@
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>210630</v>
       </c>
@@ -2413,8 +4608,20 @@
       <c r="C182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>210701</v>
       </c>
@@ -2424,8 +4631,20 @@
       <c r="C183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>210702</v>
       </c>
@@ -2435,8 +4654,20 @@
       <c r="C184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>210703</v>
       </c>
@@ -2446,8 +4677,20 @@
       <c r="C185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>210704</v>
       </c>
@@ -2457,8 +4700,20 @@
       <c r="C186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>210705</v>
       </c>
@@ -2468,8 +4723,20 @@
       <c r="C187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>210706</v>
       </c>
@@ -2479,8 +4746,20 @@
       <c r="C188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>210707</v>
       </c>
@@ -2490,8 +4769,20 @@
       <c r="C189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>210708</v>
       </c>
@@ -2501,8 +4792,20 @@
       <c r="C190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>210709</v>
       </c>
@@ -2512,8 +4815,20 @@
       <c r="C191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>210710</v>
       </c>
@@ -2523,8 +4838,20 @@
       <c r="C192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>210711</v>
       </c>
@@ -2534,8 +4861,20 @@
       <c r="C193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>210712</v>
       </c>
@@ -2545,8 +4884,20 @@
       <c r="C194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>210713</v>
       </c>
@@ -2556,8 +4907,20 @@
       <c r="C195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>210714</v>
       </c>
@@ -2567,8 +4930,20 @@
       <c r="C196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>210715</v>
       </c>
@@ -2578,8 +4953,20 @@
       <c r="C197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>210716</v>
       </c>
@@ -2589,8 +4976,20 @@
       <c r="C198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>210717</v>
       </c>
@@ -2600,8 +4999,20 @@
       <c r="C199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>210718</v>
       </c>
@@ -2611,8 +5022,20 @@
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>210719</v>
       </c>
@@ -2622,8 +5045,20 @@
       <c r="C201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>210720</v>
       </c>
@@ -2633,8 +5068,20 @@
       <c r="C202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>210721</v>
       </c>
@@ -2644,8 +5091,20 @@
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>210722</v>
       </c>
@@ -2655,8 +5114,20 @@
       <c r="C204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>210723</v>
       </c>
@@ -2666,8 +5137,20 @@
       <c r="C205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>210724</v>
       </c>
@@ -2677,8 +5160,20 @@
       <c r="C206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>210725</v>
       </c>
@@ -2688,8 +5183,20 @@
       <c r="C207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>210726</v>
       </c>
@@ -2699,8 +5206,20 @@
       <c r="C208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210727</v>
       </c>
@@ -2710,8 +5229,20 @@
       <c r="C209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>210728</v>
       </c>
@@ -2721,8 +5252,20 @@
       <c r="C210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210729</v>
       </c>
@@ -2732,8 +5275,20 @@
       <c r="C211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210730</v>
       </c>
@@ -2743,8 +5298,20 @@
       <c r="C212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>210731</v>
       </c>
@@ -2754,8 +5321,20 @@
       <c r="C213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>210801</v>
       </c>
@@ -2765,8 +5344,20 @@
       <c r="C214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>210802</v>
       </c>
@@ -2776,8 +5367,20 @@
       <c r="C215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>210803</v>
       </c>
@@ -2787,8 +5390,20 @@
       <c r="C216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>210804</v>
       </c>
@@ -2798,8 +5413,20 @@
       <c r="C217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>210805</v>
       </c>
@@ -2809,8 +5436,20 @@
       <c r="C218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>210806</v>
       </c>
@@ -2820,8 +5459,20 @@
       <c r="C219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>210807</v>
       </c>
@@ -2831,8 +5482,20 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>210808</v>
       </c>
@@ -2842,8 +5505,20 @@
       <c r="C221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>210809</v>
       </c>
@@ -2853,8 +5528,20 @@
       <c r="C222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>210810</v>
       </c>
@@ -2864,8 +5551,20 @@
       <c r="C223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>210811</v>
       </c>
@@ -2875,8 +5574,20 @@
       <c r="C224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>210812</v>
       </c>
@@ -2886,8 +5597,20 @@
       <c r="C225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>210813</v>
       </c>
@@ -2897,8 +5620,20 @@
       <c r="C226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>210814</v>
       </c>
@@ -2908,8 +5643,20 @@
       <c r="C227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>210815</v>
       </c>
@@ -2919,8 +5666,20 @@
       <c r="C228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>210816</v>
       </c>
@@ -2930,8 +5689,20 @@
       <c r="C229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>210817</v>
       </c>
@@ -2941,8 +5712,20 @@
       <c r="C230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>210818</v>
       </c>
@@ -2952,8 +5735,20 @@
       <c r="C231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>210819</v>
       </c>
@@ -2963,8 +5758,20 @@
       <c r="C232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>210820</v>
       </c>
@@ -2974,8 +5781,20 @@
       <c r="C233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>210821</v>
       </c>
@@ -2985,8 +5804,20 @@
       <c r="C234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>210822</v>
       </c>
@@ -2996,8 +5827,20 @@
       <c r="C235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>210823</v>
       </c>
@@ -3007,8 +5850,20 @@
       <c r="C236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>210824</v>
       </c>
@@ -3018,8 +5873,20 @@
       <c r="C237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>210825</v>
       </c>
@@ -3029,8 +5896,20 @@
       <c r="C238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>210826</v>
       </c>
@@ -3040,8 +5919,20 @@
       <c r="C239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>210827</v>
       </c>
@@ -3051,8 +5942,20 @@
       <c r="C240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>210828</v>
       </c>
@@ -3062,8 +5965,20 @@
       <c r="C241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>210829</v>
       </c>
@@ -3073,8 +5988,20 @@
       <c r="C242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>210830</v>
       </c>
@@ -3084,8 +6011,20 @@
       <c r="C243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>210831</v>
       </c>
@@ -3095,8 +6034,20 @@
       <c r="C244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>210901</v>
       </c>
@@ -3106,8 +6057,20 @@
       <c r="C245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>210902</v>
       </c>
@@ -3117,8 +6080,20 @@
       <c r="C246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>210903</v>
       </c>
@@ -3128,8 +6103,20 @@
       <c r="C247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>210904</v>
       </c>
@@ -3139,8 +6126,20 @@
       <c r="C248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>210905</v>
       </c>
@@ -3150,8 +6149,20 @@
       <c r="C249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>210906</v>
       </c>
@@ -3161,8 +6172,20 @@
       <c r="C250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>210907</v>
       </c>
@@ -3172,8 +6195,20 @@
       <c r="C251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>210908</v>
       </c>
@@ -3183,8 +6218,20 @@
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>210909</v>
       </c>
@@ -3194,8 +6241,20 @@
       <c r="C253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>210910</v>
       </c>
@@ -3205,8 +6264,20 @@
       <c r="C254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>210911</v>
       </c>
@@ -3216,8 +6287,20 @@
       <c r="C255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>210912</v>
       </c>
@@ -3227,8 +6310,20 @@
       <c r="C256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>210913</v>
       </c>
@@ -3238,8 +6333,20 @@
       <c r="C257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>210914</v>
       </c>
@@ -3249,8 +6356,20 @@
       <c r="C258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>210915</v>
       </c>
@@ -3260,8 +6379,20 @@
       <c r="C259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>210916</v>
       </c>
@@ -3271,8 +6402,20 @@
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>210917</v>
       </c>
@@ -3282,8 +6425,20 @@
       <c r="C261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>210918</v>
       </c>
@@ -3293,8 +6448,20 @@
       <c r="C262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>210919</v>
       </c>
@@ -3304,8 +6471,20 @@
       <c r="C263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>210920</v>
       </c>
@@ -3315,8 +6494,20 @@
       <c r="C264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>210921</v>
       </c>
@@ -3326,8 +6517,20 @@
       <c r="C265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>210922</v>
       </c>
@@ -3337,8 +6540,20 @@
       <c r="C266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>210923</v>
       </c>
@@ -3348,8 +6563,20 @@
       <c r="C267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>210924</v>
       </c>
@@ -3359,8 +6586,20 @@
       <c r="C268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>210925</v>
       </c>
@@ -3370,8 +6609,20 @@
       <c r="C269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>210926</v>
       </c>
@@ -3381,8 +6632,20 @@
       <c r="C270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>210927</v>
       </c>
@@ -3392,8 +6655,20 @@
       <c r="C271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>210928</v>
       </c>
@@ -3403,8 +6678,20 @@
       <c r="C272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>210929</v>
       </c>
@@ -3414,8 +6701,20 @@
       <c r="C273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>210930</v>
       </c>
@@ -3425,8 +6724,20 @@
       <c r="C274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>211001</v>
       </c>
@@ -3436,8 +6747,20 @@
       <c r="C275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>211002</v>
       </c>
@@ -3447,8 +6770,20 @@
       <c r="C276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>211003</v>
       </c>
@@ -3458,8 +6793,20 @@
       <c r="C277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>211004</v>
       </c>
@@ -3469,8 +6816,20 @@
       <c r="C278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>211005</v>
       </c>
@@ -3480,8 +6839,20 @@
       <c r="C279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>211006</v>
       </c>
@@ -3491,8 +6862,20 @@
       <c r="C280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>211007</v>
       </c>
@@ -3502,8 +6885,20 @@
       <c r="C281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>211008</v>
       </c>
@@ -3513,8 +6908,20 @@
       <c r="C282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>211009</v>
       </c>
@@ -3524,8 +6931,20 @@
       <c r="C283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>211010</v>
       </c>
@@ -3535,8 +6954,20 @@
       <c r="C284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>211011</v>
       </c>
@@ -3546,8 +6977,20 @@
       <c r="C285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>211012</v>
       </c>
@@ -3557,8 +7000,20 @@
       <c r="C286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>211013</v>
       </c>
@@ -3568,8 +7023,20 @@
       <c r="C287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>211014</v>
       </c>
@@ -3579,8 +7046,20 @@
       <c r="C288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>211015</v>
       </c>
@@ -3590,8 +7069,20 @@
       <c r="C289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>211016</v>
       </c>
@@ -3601,8 +7092,20 @@
       <c r="C290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>211017</v>
       </c>
@@ -3612,8 +7115,20 @@
       <c r="C291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>211018</v>
       </c>
@@ -3623,8 +7138,20 @@
       <c r="C292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>211019</v>
       </c>
@@ -3634,8 +7161,20 @@
       <c r="C293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>211020</v>
       </c>
@@ -3645,8 +7184,20 @@
       <c r="C294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>211021</v>
       </c>
@@ -3656,8 +7207,20 @@
       <c r="C295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>211022</v>
       </c>
@@ -3667,8 +7230,20 @@
       <c r="C296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>211023</v>
       </c>
@@ -3678,8 +7253,20 @@
       <c r="C297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>211024</v>
       </c>
@@ -3689,8 +7276,20 @@
       <c r="C298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>211025</v>
       </c>
@@ -3700,8 +7299,20 @@
       <c r="C299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>211026</v>
       </c>
@@ -3711,8 +7322,20 @@
       <c r="C300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>211027</v>
       </c>
@@ -3722,8 +7345,20 @@
       <c r="C301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>211028</v>
       </c>
@@ -3733,8 +7368,20 @@
       <c r="C302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>211029</v>
       </c>
@@ -3744,8 +7391,20 @@
       <c r="C303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>211030</v>
       </c>
@@ -3755,8 +7414,20 @@
       <c r="C304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>211031</v>
       </c>
@@ -3766,8 +7437,20 @@
       <c r="C305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>211101</v>
       </c>
@@ -3777,8 +7460,20 @@
       <c r="C306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>211102</v>
       </c>
@@ -3788,8 +7483,20 @@
       <c r="C307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>211103</v>
       </c>
@@ -3799,8 +7506,20 @@
       <c r="C308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>211104</v>
       </c>
@@ -3810,8 +7529,20 @@
       <c r="C309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>211105</v>
       </c>
@@ -3821,8 +7552,20 @@
       <c r="C310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>211106</v>
       </c>
@@ -3832,8 +7575,20 @@
       <c r="C311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>211107</v>
       </c>
@@ -3843,8 +7598,20 @@
       <c r="C312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>211108</v>
       </c>
@@ -3854,8 +7621,20 @@
       <c r="C313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>211109</v>
       </c>
@@ -3865,8 +7644,20 @@
       <c r="C314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>211110</v>
       </c>
@@ -3876,8 +7667,20 @@
       <c r="C315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>211111</v>
       </c>
@@ -3887,8 +7690,20 @@
       <c r="C316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>211112</v>
       </c>
@@ -3898,8 +7713,20 @@
       <c r="C317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>211113</v>
       </c>
@@ -3909,8 +7736,20 @@
       <c r="C318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>211114</v>
       </c>
@@ -3920,8 +7759,20 @@
       <c r="C319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>211115</v>
       </c>
@@ -3931,8 +7782,20 @@
       <c r="C320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>211116</v>
       </c>
@@ -3942,8 +7805,20 @@
       <c r="C321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>211117</v>
       </c>
@@ -3953,8 +7828,20 @@
       <c r="C322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>211118</v>
       </c>
@@ -3964,8 +7851,20 @@
       <c r="C323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>211119</v>
       </c>
@@ -3975,8 +7874,20 @@
       <c r="C324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>211120</v>
       </c>
@@ -3986,8 +7897,20 @@
       <c r="C325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>211121</v>
       </c>
@@ -3997,8 +7920,20 @@
       <c r="C326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>211122</v>
       </c>
@@ -4008,8 +7943,20 @@
       <c r="C327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>211123</v>
       </c>
@@ -4019,8 +7966,20 @@
       <c r="C328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>211124</v>
       </c>
@@ -4030,8 +7989,20 @@
       <c r="C329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>211125</v>
       </c>
@@ -4041,8 +8012,20 @@
       <c r="C330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>211126</v>
       </c>
@@ -4052,8 +8035,20 @@
       <c r="C331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>211127</v>
       </c>
@@ -4063,8 +8058,20 @@
       <c r="C332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>211128</v>
       </c>
@@ -4074,8 +8081,20 @@
       <c r="C333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>211129</v>
       </c>
@@ -4085,8 +8104,20 @@
       <c r="C334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>211130</v>
       </c>
@@ -4096,8 +8127,20 @@
       <c r="C335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>211201</v>
       </c>
@@ -4107,8 +8150,20 @@
       <c r="C336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>211202</v>
       </c>
@@ -4118,8 +8173,20 @@
       <c r="C337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>211203</v>
       </c>
@@ -4129,8 +8196,20 @@
       <c r="C338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>211204</v>
       </c>
@@ -4140,8 +8219,20 @@
       <c r="C339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>211205</v>
       </c>
@@ -4151,8 +8242,20 @@
       <c r="C340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>211206</v>
       </c>
@@ -4162,8 +8265,20 @@
       <c r="C341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>211207</v>
       </c>
@@ -4173,8 +8288,20 @@
       <c r="C342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>211208</v>
       </c>
@@ -4184,8 +8311,20 @@
       <c r="C343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>211209</v>
       </c>
@@ -4195,8 +8334,20 @@
       <c r="C344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>211210</v>
       </c>
@@ -4206,8 +8357,20 @@
       <c r="C345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>211211</v>
       </c>
@@ -4217,8 +8380,20 @@
       <c r="C346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>211212</v>
       </c>
@@ -4228,8 +8403,20 @@
       <c r="C347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>211213</v>
       </c>
@@ -4239,8 +8426,20 @@
       <c r="C348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>211214</v>
       </c>
@@ -4250,8 +8449,20 @@
       <c r="C349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>211215</v>
       </c>
@@ -4261,8 +8472,20 @@
       <c r="C350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>211216</v>
       </c>
@@ -4272,8 +8495,20 @@
       <c r="C351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>211217</v>
       </c>
@@ -4283,8 +8518,20 @@
       <c r="C352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>211218</v>
       </c>
@@ -4294,8 +8541,20 @@
       <c r="C353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>211219</v>
       </c>
@@ -4305,8 +8564,20 @@
       <c r="C354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>211220</v>
       </c>
@@ -4316,8 +8587,20 @@
       <c r="C355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>211221</v>
       </c>
@@ -4327,8 +8610,20 @@
       <c r="C356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>211222</v>
       </c>
@@ -4338,8 +8633,20 @@
       <c r="C357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>211223</v>
       </c>
@@ -4349,8 +8656,20 @@
       <c r="C358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>211224</v>
       </c>
@@ -4360,8 +8679,20 @@
       <c r="C359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>211225</v>
       </c>
@@ -4371,8 +8702,20 @@
       <c r="C360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>211226</v>
       </c>
@@ -4382,8 +8725,20 @@
       <c r="C361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>211227</v>
       </c>
@@ -4393,8 +8748,20 @@
       <c r="C362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>211228</v>
       </c>
@@ -4404,8 +8771,20 @@
       <c r="C363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>211229</v>
       </c>
@@ -4415,8 +8794,20 @@
       <c r="C364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>211230</v>
       </c>
@@ -4426,8 +8817,20 @@
       <c r="C365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>211231</v>
       </c>
@@ -4437,8 +8840,21 @@
       <c r="C366">
         <v>0</v>
       </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:G366" xr:uid="{333108FB-DE9C-416A-9215-98EEFCFBADDD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_data/2021_cal_flag.xlsx
+++ b/processed_data/2021_cal_flag.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\yekim\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1567EEAE-FDF0-40B7-988B-D3B760E2B01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE257C-9EA6-4248-9846-EB3287154C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
+    <workbookView xWindow="2220" yWindow="1590" windowWidth="26580" windowHeight="11385" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$G$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$366</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,21 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>load_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>week_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eve_flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,6 +54,26 @@
   </si>
   <si>
     <t>miss_flag_pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holi_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eve_holi_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eve_week_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss_intersection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss&amp;week</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,39 +438,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333108FB-DE9C-416A-9215-98EEFCFBADDD}">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="L333" sqref="L333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>210101</v>
       </c>
@@ -469,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -480,8 +502,14 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>210102</v>
       </c>
@@ -492,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -503,8 +531,14 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>210103</v>
       </c>
@@ -518,16 +552,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>210104</v>
       </c>
@@ -538,19 +578,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>210105</v>
       </c>
@@ -561,19 +604,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>210106</v>
       </c>
@@ -584,19 +630,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>210107</v>
       </c>
@@ -607,19 +656,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>210108</v>
       </c>
@@ -633,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -641,8 +693,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>210109</v>
       </c>
@@ -653,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -664,8 +719,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>210110</v>
       </c>
@@ -679,16 +740,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210111</v>
       </c>
@@ -699,19 +766,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>210112</v>
       </c>
@@ -722,19 +792,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>210113</v>
       </c>
@@ -745,19 +818,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>210114</v>
       </c>
@@ -768,19 +844,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>210115</v>
       </c>
@@ -794,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -802,8 +881,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>210116</v>
       </c>
@@ -814,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -825,8 +907,14 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>210117</v>
       </c>
@@ -840,16 +928,22 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>210118</v>
       </c>
@@ -860,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -869,10 +963,19 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>210119</v>
       </c>
@@ -883,19 +986,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>210120</v>
       </c>
@@ -906,19 +1012,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>210121</v>
       </c>
@@ -929,19 +1038,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>210122</v>
       </c>
@@ -955,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -963,8 +1075,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>210123</v>
       </c>
@@ -975,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -986,8 +1101,14 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>210124</v>
       </c>
@@ -1001,16 +1122,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>210125</v>
       </c>
@@ -1021,19 +1148,22 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>210126</v>
       </c>
@@ -1044,19 +1174,22 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>210127</v>
       </c>
@@ -1067,19 +1200,22 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>210128</v>
       </c>
@@ -1090,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1099,10 +1235,19 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>210129</v>
       </c>
@@ -1116,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1124,8 +1269,11 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>210130</v>
       </c>
@@ -1136,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1147,8 +1295,14 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>210131</v>
       </c>
@@ -1162,16 +1316,25 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>210201</v>
       </c>
@@ -1182,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1191,10 +1354,19 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>210202</v>
       </c>
@@ -1205,19 +1377,22 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>210203</v>
       </c>
@@ -1228,19 +1403,22 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>210204</v>
       </c>
@@ -1251,19 +1429,22 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>210205</v>
       </c>
@@ -1277,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1285,8 +1466,11 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>210206</v>
       </c>
@@ -1297,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1308,8 +1492,14 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>210207</v>
       </c>
@@ -1323,16 +1513,22 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>210208</v>
       </c>
@@ -1343,19 +1539,22 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>210209</v>
       </c>
@@ -1366,19 +1565,22 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>210210</v>
       </c>
@@ -1392,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1400,8 +1602,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>210211</v>
       </c>
@@ -1412,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1423,8 +1628,14 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>210212</v>
       </c>
@@ -1435,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1446,8 +1657,14 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>210213</v>
       </c>
@@ -1458,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1469,8 +1686,14 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>210214</v>
       </c>
@@ -1484,16 +1707,22 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>210215</v>
       </c>
@@ -1504,19 +1733,22 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>210216</v>
       </c>
@@ -1527,19 +1759,22 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>210217</v>
       </c>
@@ -1550,19 +1785,22 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>210218</v>
       </c>
@@ -1573,19 +1811,22 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>210219</v>
       </c>
@@ -1599,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1607,8 +1848,11 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>210220</v>
       </c>
@@ -1619,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1630,8 +1874,14 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>210221</v>
       </c>
@@ -1645,16 +1895,25 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>210222</v>
       </c>
@@ -1665,19 +1924,22 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>210223</v>
       </c>
@@ -1688,19 +1950,22 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>210224</v>
       </c>
@@ -1711,19 +1976,22 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>210225</v>
       </c>
@@ -1734,19 +2002,22 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>210226</v>
       </c>
@@ -1760,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1768,8 +2039,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>210227</v>
       </c>
@@ -1780,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1791,8 +2065,14 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>210228</v>
       </c>
@@ -1806,16 +2086,25 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>210301</v>
       </c>
@@ -1826,19 +2115,22 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>210302</v>
       </c>
@@ -1849,19 +2141,22 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>210303</v>
       </c>
@@ -1872,19 +2167,22 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>210304</v>
       </c>
@@ -1895,19 +2193,22 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>210305</v>
       </c>
@@ -1921,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1929,8 +2230,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>210306</v>
       </c>
@@ -1941,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1952,8 +2256,14 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>210307</v>
       </c>
@@ -1967,16 +2277,22 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>210308</v>
       </c>
@@ -1987,19 +2303,22 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>210309</v>
       </c>
@@ -2010,19 +2329,22 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>210310</v>
       </c>
@@ -2033,19 +2355,22 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>210311</v>
       </c>
@@ -2056,19 +2381,22 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>210312</v>
       </c>
@@ -2082,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2090,8 +2418,11 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>210313</v>
       </c>
@@ -2102,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2113,8 +2444,14 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>210314</v>
       </c>
@@ -2128,16 +2465,22 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>210315</v>
       </c>
@@ -2148,19 +2491,22 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>210316</v>
       </c>
@@ -2171,19 +2517,22 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>210317</v>
       </c>
@@ -2194,19 +2543,22 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>210318</v>
       </c>
@@ -2217,19 +2569,22 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>210319</v>
       </c>
@@ -2243,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2251,8 +2606,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>210320</v>
       </c>
@@ -2263,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2274,8 +2632,14 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>210321</v>
       </c>
@@ -2289,16 +2653,22 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>210322</v>
       </c>
@@ -2309,19 +2679,22 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>210323</v>
       </c>
@@ -2332,19 +2705,22 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>210324</v>
       </c>
@@ -2355,19 +2731,22 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>210325</v>
       </c>
@@ -2378,19 +2757,22 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>210326</v>
       </c>
@@ -2404,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2412,8 +2794,11 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>210327</v>
       </c>
@@ -2424,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2435,8 +2820,14 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>210328</v>
       </c>
@@ -2450,16 +2841,22 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>210329</v>
       </c>
@@ -2470,19 +2867,22 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>210330</v>
       </c>
@@ -2493,19 +2893,22 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>210331</v>
       </c>
@@ -2516,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2525,10 +2928,19 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>210401</v>
       </c>
@@ -2539,19 +2951,22 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>210402</v>
       </c>
@@ -2565,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2573,8 +2988,11 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>210403</v>
       </c>
@@ -2585,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2596,8 +3014,14 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>210404</v>
       </c>
@@ -2611,16 +3035,22 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>210405</v>
       </c>
@@ -2631,19 +3061,22 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>210406</v>
       </c>
@@ -2654,19 +3087,22 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>210407</v>
       </c>
@@ -2677,19 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>210408</v>
       </c>
@@ -2700,19 +3139,22 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>210409</v>
       </c>
@@ -2726,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2734,8 +3176,11 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>210410</v>
       </c>
@@ -2746,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2757,8 +3202,14 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>210411</v>
       </c>
@@ -2772,16 +3223,22 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>210412</v>
       </c>
@@ -2792,19 +3249,22 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>210413</v>
       </c>
@@ -2815,19 +3275,22 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>210414</v>
       </c>
@@ -2838,19 +3301,22 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>210415</v>
       </c>
@@ -2861,19 +3327,22 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>210416</v>
       </c>
@@ -2887,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2895,8 +3364,11 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>210417</v>
       </c>
@@ -2907,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2918,8 +3390,14 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>210418</v>
       </c>
@@ -2933,16 +3411,22 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>210419</v>
       </c>
@@ -2953,19 +3437,22 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>210420</v>
       </c>
@@ -2976,19 +3463,22 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>210421</v>
       </c>
@@ -2999,19 +3489,22 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>210422</v>
       </c>
@@ -3022,19 +3515,22 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>210423</v>
       </c>
@@ -3048,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3056,8 +3552,11 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>210424</v>
       </c>
@@ -3068,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3079,8 +3578,14 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>210425</v>
       </c>
@@ -3094,16 +3599,22 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>210426</v>
       </c>
@@ -3114,19 +3625,22 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>210427</v>
       </c>
@@ -3137,19 +3651,22 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>210428</v>
       </c>
@@ -3160,19 +3677,22 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>210429</v>
       </c>
@@ -3183,19 +3703,22 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>210430</v>
       </c>
@@ -3209,16 +3732,25 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>210501</v>
       </c>
@@ -3229,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -3240,8 +3772,14 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>210502</v>
       </c>
@@ -3255,16 +3793,22 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>210503</v>
       </c>
@@ -3275,19 +3819,22 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>210504</v>
       </c>
@@ -3301,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3309,8 +3856,11 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>210505</v>
       </c>
@@ -3324,16 +3874,22 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>210506</v>
       </c>
@@ -3344,19 +3900,22 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>210507</v>
       </c>
@@ -3370,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3378,8 +3937,11 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>210508</v>
       </c>
@@ -3390,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3401,8 +3963,14 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>210509</v>
       </c>
@@ -3416,16 +3984,22 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>210510</v>
       </c>
@@ -3436,19 +4010,22 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>210511</v>
       </c>
@@ -3459,19 +4036,22 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>210512</v>
       </c>
@@ -3482,19 +4062,22 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>210513</v>
       </c>
@@ -3505,19 +4088,22 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>210514</v>
       </c>
@@ -3531,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3539,8 +4125,11 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>210515</v>
       </c>
@@ -3551,19 +4140,28 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>210516</v>
       </c>
@@ -3577,16 +4175,22 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>210517</v>
       </c>
@@ -3597,19 +4201,22 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>210518</v>
       </c>
@@ -3620,19 +4227,22 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>210519</v>
       </c>
@@ -3643,19 +4253,22 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>210520</v>
       </c>
@@ -3666,19 +4279,22 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>210521</v>
       </c>
@@ -3692,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3700,8 +4316,11 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>210522</v>
       </c>
@@ -3712,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3723,8 +4342,14 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>210523</v>
       </c>
@@ -3738,16 +4363,22 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>210524</v>
       </c>
@@ -3758,19 +4389,22 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>210525</v>
       </c>
@@ -3781,19 +4415,22 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>210526</v>
       </c>
@@ -3804,19 +4441,22 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>210527</v>
       </c>
@@ -3827,19 +4467,22 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>210528</v>
       </c>
@@ -3853,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3861,8 +4504,11 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>210529</v>
       </c>
@@ -3873,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -3884,8 +4530,14 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>210530</v>
       </c>
@@ -3899,16 +4551,22 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>210531</v>
       </c>
@@ -3919,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -3928,10 +4586,19 @@
         <v>1</v>
       </c>
       <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>210601</v>
       </c>
@@ -3942,19 +4609,22 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>210602</v>
       </c>
@@ -3965,19 +4635,22 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>210603</v>
       </c>
@@ -3988,19 +4661,22 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>210604</v>
       </c>
@@ -4014,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4022,8 +4698,11 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>210605</v>
       </c>
@@ -4034,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4045,8 +4724,14 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>210606</v>
       </c>
@@ -4060,16 +4745,22 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>210607</v>
       </c>
@@ -4080,19 +4771,22 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>210608</v>
       </c>
@@ -4103,19 +4797,22 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>210609</v>
       </c>
@@ -4126,19 +4823,22 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>210610</v>
       </c>
@@ -4149,19 +4849,22 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>210611</v>
       </c>
@@ -4175,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4183,8 +4886,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>210612</v>
       </c>
@@ -4195,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4206,8 +4912,14 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>210613</v>
       </c>
@@ -4221,16 +4933,22 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>210614</v>
       </c>
@@ -4241,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4250,10 +4968,19 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>210615</v>
       </c>
@@ -4264,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4273,10 +5000,19 @@
         <v>1</v>
       </c>
       <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>210616</v>
       </c>
@@ -4287,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -4296,10 +5032,19 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>210617</v>
       </c>
@@ -4310,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -4319,10 +5064,19 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>210618</v>
       </c>
@@ -4336,16 +5090,25 @@
         <v>1</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>210619</v>
       </c>
@@ -4356,19 +5119,28 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>210620</v>
       </c>
@@ -4382,16 +5154,25 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
       <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>210621</v>
       </c>
@@ -4402,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -4411,10 +5192,19 @@
         <v>1</v>
       </c>
       <c r="G173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>210622</v>
       </c>
@@ -4425,19 +5215,22 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>210623</v>
       </c>
@@ -4448,19 +5241,22 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>210624</v>
       </c>
@@ -4471,19 +5267,22 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>210625</v>
       </c>
@@ -4497,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4505,8 +5304,11 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>210626</v>
       </c>
@@ -4517,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -4528,8 +5330,14 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>210627</v>
       </c>
@@ -4543,16 +5351,22 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>210628</v>
       </c>
@@ -4563,19 +5377,22 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>210629</v>
       </c>
@@ -4586,19 +5403,22 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>210630</v>
       </c>
@@ -4609,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -4618,10 +5438,19 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>210701</v>
       </c>
@@ -4632,19 +5461,22 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>210702</v>
       </c>
@@ -4658,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4666,8 +5498,11 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>210703</v>
       </c>
@@ -4678,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -4689,8 +5524,14 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>210704</v>
       </c>
@@ -4704,16 +5545,22 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>210705</v>
       </c>
@@ -4724,19 +5571,22 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>210706</v>
       </c>
@@ -4747,19 +5597,22 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>210707</v>
       </c>
@@ -4770,19 +5623,22 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>210708</v>
       </c>
@@ -4793,19 +5649,22 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>210709</v>
       </c>
@@ -4819,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4827,8 +5686,11 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>210710</v>
       </c>
@@ -4839,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -4850,8 +5712,14 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>210711</v>
       </c>
@@ -4865,16 +5733,22 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>210712</v>
       </c>
@@ -4885,19 +5759,22 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>210713</v>
       </c>
@@ -4908,19 +5785,22 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>210714</v>
       </c>
@@ -4931,19 +5811,22 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>210715</v>
       </c>
@@ -4954,19 +5837,22 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>210716</v>
       </c>
@@ -4980,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4988,8 +5874,11 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>210717</v>
       </c>
@@ -5000,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -5011,8 +5900,14 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>210718</v>
       </c>
@@ -5026,16 +5921,22 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>210719</v>
       </c>
@@ -5046,19 +5947,22 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>210720</v>
       </c>
@@ -5069,19 +5973,22 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>210721</v>
       </c>
@@ -5092,19 +5999,22 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>210722</v>
       </c>
@@ -5115,19 +6025,22 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>210723</v>
       </c>
@@ -5141,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5149,8 +6062,11 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>210724</v>
       </c>
@@ -5161,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -5172,8 +6088,14 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>210725</v>
       </c>
@@ -5187,16 +6109,22 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>210726</v>
       </c>
@@ -5207,19 +6135,22 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210727</v>
       </c>
@@ -5230,19 +6161,22 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>210728</v>
       </c>
@@ -5253,19 +6187,22 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210729</v>
       </c>
@@ -5276,19 +6213,22 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210730</v>
       </c>
@@ -5302,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5310,8 +6250,11 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>210731</v>
       </c>
@@ -5322,19 +6265,28 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>210801</v>
       </c>
@@ -5348,16 +6300,22 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>210802</v>
       </c>
@@ -5368,19 +6326,22 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>210803</v>
       </c>
@@ -5391,19 +6352,22 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>210804</v>
       </c>
@@ -5414,19 +6378,22 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>210805</v>
       </c>
@@ -5437,19 +6404,22 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>210806</v>
       </c>
@@ -5463,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -5471,8 +6441,11 @@
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>210807</v>
       </c>
@@ -5483,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -5494,8 +6467,14 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>210808</v>
       </c>
@@ -5509,16 +6488,22 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>210809</v>
       </c>
@@ -5529,19 +6514,22 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>210810</v>
       </c>
@@ -5552,19 +6540,22 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>210811</v>
       </c>
@@ -5575,19 +6566,22 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>210812</v>
       </c>
@@ -5598,19 +6592,22 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>210813</v>
       </c>
@@ -5624,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -5632,8 +6629,11 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>210814</v>
       </c>
@@ -5644,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -5655,8 +6655,14 @@
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>210815</v>
       </c>
@@ -5670,16 +6676,22 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>210816</v>
       </c>
@@ -5690,19 +6702,22 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>210817</v>
       </c>
@@ -5713,19 +6728,22 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>210818</v>
       </c>
@@ -5736,19 +6754,22 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>210819</v>
       </c>
@@ -5759,19 +6780,22 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232">
         <v>1</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>210820</v>
       </c>
@@ -5785,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5793,8 +6817,11 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>210821</v>
       </c>
@@ -5805,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -5816,8 +6843,14 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>210822</v>
       </c>
@@ -5831,16 +6864,22 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>210823</v>
       </c>
@@ -5851,19 +6890,22 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>210824</v>
       </c>
@@ -5874,19 +6916,22 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237">
         <v>1</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>210825</v>
       </c>
@@ -5897,19 +6942,22 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>210826</v>
       </c>
@@ -5920,19 +6968,22 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>210827</v>
       </c>
@@ -5946,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5954,8 +7005,11 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>210828</v>
       </c>
@@ -5966,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -5977,8 +7031,14 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>210829</v>
       </c>
@@ -5992,16 +7052,22 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>210830</v>
       </c>
@@ -6012,19 +7078,22 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
         <v>1</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>210831</v>
       </c>
@@ -6035,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -6044,10 +7113,19 @@
         <v>1</v>
       </c>
       <c r="G244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>210901</v>
       </c>
@@ -6058,19 +7136,22 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>1</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>210902</v>
       </c>
@@ -6081,19 +7162,22 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246">
         <v>1</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>210903</v>
       </c>
@@ -6107,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6115,8 +7199,11 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>210904</v>
       </c>
@@ -6127,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6138,8 +7225,14 @@
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>210905</v>
       </c>
@@ -6153,16 +7246,22 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>210906</v>
       </c>
@@ -6173,19 +7272,22 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>1</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>210907</v>
       </c>
@@ -6196,19 +7298,22 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>1</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>210908</v>
       </c>
@@ -6219,19 +7324,22 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>1</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>210909</v>
       </c>
@@ -6242,19 +7350,22 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>1</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>210910</v>
       </c>
@@ -6268,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6276,8 +7387,11 @@
       <c r="G254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>210911</v>
       </c>
@@ -6288,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6299,8 +7413,14 @@
       <c r="G255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>210912</v>
       </c>
@@ -6314,16 +7434,22 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>210913</v>
       </c>
@@ -6334,19 +7460,22 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
         <v>1</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>210914</v>
       </c>
@@ -6357,19 +7486,22 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
         <v>1</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>210915</v>
       </c>
@@ -6380,19 +7512,22 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259">
         <v>1</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>210916</v>
       </c>
@@ -6403,19 +7538,22 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>1</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>210917</v>
       </c>
@@ -6429,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -6437,8 +7575,11 @@
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>210918</v>
       </c>
@@ -6449,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6460,8 +7601,14 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>210919</v>
       </c>
@@ -6475,16 +7622,22 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>210920</v>
       </c>
@@ -6495,19 +7648,22 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264">
         <v>1</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>210921</v>
       </c>
@@ -6518,19 +7674,22 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>1</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>210922</v>
       </c>
@@ -6541,19 +7700,22 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>1</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>210923</v>
       </c>
@@ -6564,19 +7726,22 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267">
         <v>1</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>210924</v>
       </c>
@@ -6590,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -6598,8 +7763,11 @@
       <c r="G268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>210925</v>
       </c>
@@ -6610,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6621,8 +7789,14 @@
       <c r="G269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>210926</v>
       </c>
@@ -6636,16 +7810,22 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>210927</v>
       </c>
@@ -6656,19 +7836,22 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271">
         <v>1</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>210928</v>
       </c>
@@ -6679,19 +7862,22 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
         <v>1</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>210929</v>
       </c>
@@ -6702,19 +7888,22 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
         <v>1</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>210930</v>
       </c>
@@ -6725,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -6734,10 +7923,19 @@
         <v>1</v>
       </c>
       <c r="G274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>211001</v>
       </c>
@@ -6751,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -6759,8 +7957,11 @@
       <c r="G275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>211002</v>
       </c>
@@ -6771,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -6782,8 +7983,14 @@
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>211003</v>
       </c>
@@ -6797,16 +8004,22 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>211004</v>
       </c>
@@ -6817,19 +8030,22 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278">
         <v>1</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>211005</v>
       </c>
@@ -6840,19 +8056,22 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>1</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>211006</v>
       </c>
@@ -6863,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -6872,10 +8091,19 @@
         <v>1</v>
       </c>
       <c r="G280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>211007</v>
       </c>
@@ -6886,19 +8114,22 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>1</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>211008</v>
       </c>
@@ -6912,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6920,8 +8151,11 @@
       <c r="G282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>211009</v>
       </c>
@@ -6932,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6943,8 +8177,14 @@
       <c r="G283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>211010</v>
       </c>
@@ -6958,16 +8198,22 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>211011</v>
       </c>
@@ -6978,19 +8224,22 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>1</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>211012</v>
       </c>
@@ -7001,19 +8250,22 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286">
         <v>1</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>211013</v>
       </c>
@@ -7024,19 +8276,22 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
         <v>1</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>211014</v>
       </c>
@@ -7047,19 +8302,22 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
         <v>1</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>211015</v>
       </c>
@@ -7073,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7081,8 +8339,11 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>211016</v>
       </c>
@@ -7093,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -7104,8 +8365,14 @@
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>211017</v>
       </c>
@@ -7119,16 +8386,22 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>211018</v>
       </c>
@@ -7139,19 +8412,22 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292">
         <v>1</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>211019</v>
       </c>
@@ -7162,19 +8438,22 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
         <v>1</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>211020</v>
       </c>
@@ -7185,19 +8464,22 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>1</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>211021</v>
       </c>
@@ -7208,19 +8490,22 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>1</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>211022</v>
       </c>
@@ -7234,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -7242,8 +8527,11 @@
       <c r="G296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>211023</v>
       </c>
@@ -7254,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -7265,8 +8553,14 @@
       <c r="G297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>211024</v>
       </c>
@@ -7280,16 +8574,22 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>211025</v>
       </c>
@@ -7300,19 +8600,22 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299">
         <v>1</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>211026</v>
       </c>
@@ -7323,19 +8626,22 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>1</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>211027</v>
       </c>
@@ -7346,19 +8652,22 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
         <v>1</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>211028</v>
       </c>
@@ -7369,19 +8678,22 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302">
         <v>1</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>211029</v>
       </c>
@@ -7395,16 +8707,25 @@
         <v>1</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>211030</v>
       </c>
@@ -7415,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -7426,8 +8747,14 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>211031</v>
       </c>
@@ -7441,16 +8768,25 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305">
         <v>1</v>
       </c>
       <c r="G305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>211101</v>
       </c>
@@ -7461,19 +8797,22 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E306">
         <v>1</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>211102</v>
       </c>
@@ -7484,19 +8823,22 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307">
         <v>1</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>211103</v>
       </c>
@@ -7507,19 +8849,22 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308">
         <v>1</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>211104</v>
       </c>
@@ -7530,19 +8875,22 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309">
         <v>1</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>211105</v>
       </c>
@@ -7556,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -7564,8 +8912,11 @@
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>211106</v>
       </c>
@@ -7576,19 +8927,28 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311">
         <v>0</v>
       </c>
       <c r="F311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>211107</v>
       </c>
@@ -7602,16 +8962,22 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>211108</v>
       </c>
@@ -7622,19 +8988,22 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E313">
         <v>1</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>211109</v>
       </c>
@@ -7645,19 +9014,22 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314">
         <v>1</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>211110</v>
       </c>
@@ -7668,19 +9040,22 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315">
         <v>1</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>211111</v>
       </c>
@@ -7691,19 +9066,22 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <v>1</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>211112</v>
       </c>
@@ -7717,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -7725,8 +9103,11 @@
       <c r="G317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>211113</v>
       </c>
@@ -7737,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -7748,8 +9129,14 @@
       <c r="G318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>211114</v>
       </c>
@@ -7763,16 +9150,22 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>211115</v>
       </c>
@@ -7783,19 +9176,22 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320">
         <v>1</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>211116</v>
       </c>
@@ -7806,19 +9202,22 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321">
         <v>1</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>211117</v>
       </c>
@@ -7829,19 +9228,22 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322">
         <v>1</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>211118</v>
       </c>
@@ -7852,19 +9254,22 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E323">
         <v>1</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>211119</v>
       </c>
@@ -7878,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -7886,8 +9291,11 @@
       <c r="G324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>211120</v>
       </c>
@@ -7898,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -7909,8 +9317,14 @@
       <c r="G325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>211121</v>
       </c>
@@ -7924,16 +9338,22 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>211122</v>
       </c>
@@ -7944,19 +9364,22 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327">
         <v>1</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>211123</v>
       </c>
@@ -7967,19 +9390,22 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E328">
         <v>1</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>211124</v>
       </c>
@@ -7990,19 +9416,22 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E329">
         <v>1</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>211125</v>
       </c>
@@ -8013,19 +9442,22 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330">
         <v>1</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>211126</v>
       </c>
@@ -8039,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -8047,8 +9479,11 @@
       <c r="G331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>211127</v>
       </c>
@@ -8059,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -8070,8 +9505,14 @@
       <c r="G332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>211128</v>
       </c>
@@ -8085,16 +9526,22 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>211129</v>
       </c>
@@ -8105,19 +9552,22 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E334">
         <v>1</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>211130</v>
       </c>
@@ -8128,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -8137,10 +9587,19 @@
         <v>1</v>
       </c>
       <c r="G335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>211201</v>
       </c>
@@ -8151,19 +9610,22 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E336">
         <v>1</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>211202</v>
       </c>
@@ -8174,19 +9636,22 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E337">
         <v>1</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>211203</v>
       </c>
@@ -8200,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -8208,8 +9673,11 @@
       <c r="G338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>211204</v>
       </c>
@@ -8220,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -8231,8 +9699,14 @@
       <c r="G339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>211205</v>
       </c>
@@ -8246,16 +9720,22 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>211206</v>
       </c>
@@ -8266,19 +9746,22 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <v>1</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>211207</v>
       </c>
@@ -8289,19 +9772,22 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342">
         <v>1</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>211208</v>
       </c>
@@ -8312,19 +9798,22 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E343">
         <v>1</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>211209</v>
       </c>
@@ -8335,19 +9824,22 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E344">
         <v>1</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>211210</v>
       </c>
@@ -8361,16 +9853,25 @@
         <v>1</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>211211</v>
       </c>
@@ -8381,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -8392,8 +9893,14 @@
       <c r="G346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>211212</v>
       </c>
@@ -8407,16 +9914,22 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>211213</v>
       </c>
@@ -8427,19 +9940,22 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E348">
         <v>1</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>211214</v>
       </c>
@@ -8450,19 +9966,22 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349">
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>211215</v>
       </c>
@@ -8473,19 +9992,22 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350">
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>211216</v>
       </c>
@@ -8496,19 +10018,22 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351">
         <v>1</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>211217</v>
       </c>
@@ -8522,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -8530,8 +10055,11 @@
       <c r="G352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>211218</v>
       </c>
@@ -8542,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -8553,8 +10081,14 @@
       <c r="G353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>211219</v>
       </c>
@@ -8568,16 +10102,22 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>211220</v>
       </c>
@@ -8588,19 +10128,22 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E355">
         <v>1</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>211221</v>
       </c>
@@ -8611,19 +10154,22 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E356">
         <v>1</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>211222</v>
       </c>
@@ -8634,19 +10180,28 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E357">
         <v>1</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>211223</v>
       </c>
@@ -8657,19 +10212,28 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E358">
         <v>1</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>211224</v>
       </c>
@@ -8683,16 +10247,25 @@
         <v>1</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F359">
         <v>0</v>
       </c>
       <c r="G359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>211225</v>
       </c>
@@ -8703,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -8714,8 +10287,14 @@
       <c r="G360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>211226</v>
       </c>
@@ -8729,16 +10308,22 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>211227</v>
       </c>
@@ -8749,19 +10334,22 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362">
         <v>1</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>211228</v>
       </c>
@@ -8772,19 +10360,22 @@
         <v>0</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E363">
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>211229</v>
       </c>
@@ -8795,19 +10386,22 @@
         <v>0</v>
       </c>
       <c r="D364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E364">
         <v>1</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>211230</v>
       </c>
@@ -8818,19 +10412,22 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
         <v>1</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>211231</v>
       </c>
@@ -8844,17 +10441,25 @@
         <v>1</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:G366" xr:uid="{333108FB-DE9C-416A-9215-98EEFCFBADDD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_data/2021_cal_flag.xlsx
+++ b/processed_data/2021_cal_flag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\yekim\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE257C-9EA6-4248-9846-EB3287154C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CAD86C-5EEE-4A74-8038-6E9A9FB98ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1590" windowWidth="26580" windowHeight="11385" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
+    <workbookView xWindow="630" yWindow="2460" windowWidth="26580" windowHeight="11385" xr2:uid="{640AA82B-8974-4F9F-9DBA-4D19F3F225DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333108FB-DE9C-416A-9215-98EEFCFBADDD}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L333" sqref="L333"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="J321" sqref="J321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9225,13 +9225,13 @@
         <v>321</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D322">
         <v>0</v>
       </c>
       <c r="E322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -9241,6 +9241,9 @@
       </c>
       <c r="H322">
         <v>0</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
